--- a/class.xlsx
+++ b/class.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ClassIt\Logic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yonatan\Desktop\ClassIt-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7B94F-A8AA-4C3E-8DFA-ABEBEB601942}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="5775"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>מספר בניין</t>
   </si>
@@ -53,9 +48,6 @@
     <t>כסאות ניידים (כן/לא)</t>
   </si>
   <si>
-    <t>3456-2</t>
-  </si>
-  <si>
     <t>לא</t>
   </si>
   <si>
@@ -73,14 +65,11 @@
   <si>
     <t>קומה</t>
   </si>
-  <si>
-    <t>2456-2</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -467,28 +456,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L234"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="5.75" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="8.6171875" customWidth="1"/>
+    <col min="2" max="2" width="9.37890625" customWidth="1"/>
+    <col min="3" max="3" width="5.76171875" customWidth="1"/>
+    <col min="4" max="4" width="10.37890625" customWidth="1"/>
+    <col min="5" max="5" width="9.76171875" customWidth="1"/>
+    <col min="6" max="6" width="18.47265625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.6171875" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -496,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -511,18 +500,18 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -535,26 +524,26 @@
       <c r="D2" s="2">
         <v>216</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
+      <c r="E2" s="3">
+        <v>2216</v>
       </c>
       <c r="F2" s="2">
         <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -567,26 +556,26 @@
       <c r="D3" s="2">
         <v>216</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
+      <c r="E3" s="3">
+        <v>2316</v>
       </c>
       <c r="F3" s="2">
         <v>30</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -598,7 +587,7 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -610,7 +599,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -622,7 +611,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -634,7 +623,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -646,7 +635,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -658,903 +647,903 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
     </row>
-    <row r="58" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="59" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
     </row>
-    <row r="60" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
     </row>
-    <row r="61" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
-    <row r="63" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
     </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
     </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
     </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
     </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
     </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
     </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
     </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
     </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
     </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
     </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
     </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
     </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
     </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
     </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
     </row>
-    <row r="135" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
     </row>
-    <row r="136" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
     </row>
-    <row r="137" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
     </row>
-    <row r="138" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
     </row>
-    <row r="139" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
     </row>
-    <row r="140" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
     </row>
-    <row r="141" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
     </row>
-    <row r="142" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
     </row>
-    <row r="143" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
     </row>
-    <row r="144" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
     </row>
-    <row r="145" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
     </row>
-    <row r="146" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
     </row>
-    <row r="147" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
     </row>
-    <row r="148" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
     </row>
-    <row r="149" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
     </row>
-    <row r="150" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
     </row>
-    <row r="151" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
     </row>
-    <row r="152" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
     </row>
-    <row r="153" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
     </row>
-    <row r="154" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
     </row>
-    <row r="155" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
     </row>
-    <row r="156" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
     </row>
-    <row r="157" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
     </row>
-    <row r="158" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
     </row>
-    <row r="159" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
     </row>
-    <row r="160" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
     </row>
-    <row r="161" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
     </row>
-    <row r="162" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
     </row>
-    <row r="163" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
     </row>
-    <row r="164" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
     </row>
-    <row r="165" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
     </row>
-    <row r="166" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
     </row>
-    <row r="167" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
     </row>
-    <row r="168" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
     </row>
-    <row r="169" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
     </row>
-    <row r="170" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
     </row>
-    <row r="171" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
     </row>
-    <row r="172" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
     </row>
-    <row r="173" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
     </row>
-    <row r="174" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
     </row>
-    <row r="175" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
     </row>
-    <row r="176" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
     </row>
-    <row r="177" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
     </row>
-    <row r="178" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
     </row>
-    <row r="179" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
     </row>
-    <row r="180" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
     </row>
-    <row r="181" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
     </row>
-    <row r="182" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
     </row>
-    <row r="183" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
     </row>
-    <row r="184" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
     </row>
-    <row r="185" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
     </row>
-    <row r="186" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
     </row>
-    <row r="187" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
     </row>
-    <row r="188" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
     </row>
-    <row r="189" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
     </row>
-    <row r="190" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
     </row>
-    <row r="191" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
     </row>
-    <row r="192" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
     </row>
-    <row r="193" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
     </row>
-    <row r="194" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
     </row>
-    <row r="195" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
     </row>
-    <row r="196" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
     </row>
-    <row r="197" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
     </row>
-    <row r="198" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
     </row>
-    <row r="199" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
     </row>
-    <row r="200" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
     </row>
-    <row r="201" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
     </row>
-    <row r="202" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
     </row>
-    <row r="203" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
     </row>
-    <row r="204" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
     </row>
-    <row r="205" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
     </row>
-    <row r="209" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
     </row>
-    <row r="210" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
     </row>
-    <row r="211" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
     </row>
-    <row r="212" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
     </row>
-    <row r="213" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
     </row>
-    <row r="214" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
     </row>
-    <row r="215" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
     </row>
-    <row r="216" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
     </row>
-    <row r="217" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
     </row>
-    <row r="218" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
     </row>
-    <row r="219" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
     </row>
-    <row r="220" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
     </row>
-    <row r="221" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
     </row>
-    <row r="222" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
     </row>
-    <row r="223" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
     </row>
-    <row r="224" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
     </row>
-    <row r="225" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
     </row>
-    <row r="226" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
     </row>
-    <row r="227" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
     </row>
-    <row r="228" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
     </row>
-    <row r="229" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
     </row>
-    <row r="230" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
     </row>
-    <row r="231" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
     </row>
-    <row r="232" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
     </row>
-    <row r="233" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
     </row>
-    <row r="234" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="7:8" x14ac:dyDescent="0.45">
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
     </row>
